--- a/分析藍本摘要_Demo.xlsx
+++ b/分析藍本摘要_Demo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC14F1BE-60EB-4ECB-8A56-A4D759B312DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0263131E-9281-44D6-81C8-BCAAE353B208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="分析藍本摘要" sheetId="2" r:id="rId1"/>
@@ -1738,8 +1738,8 @@
   </sheetPr>
   <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1990,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X255"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="O57" sqref="O57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2143,15 +2143,15 @@
       </c>
       <c r="C5" s="37">
         <f ca="1">RANDBETWEEN(100,250)</f>
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="D5" s="35">
         <f ca="1">MIN(B5,C5)</f>
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="E5" s="30">
         <f ca="1">B5-D5</f>
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="F5" s="18">
         <v>0</v>
@@ -2164,11 +2164,11 @@
       </c>
       <c r="I5" s="30">
         <f ca="1">MAX(I$3-(E5+F5+G5+H5),0)</f>
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="J5" s="32">
         <f ca="1">D5*J$3</f>
-        <v>4650</v>
+        <v>5430</v>
       </c>
       <c r="K5" s="33">
         <f ca="1">MAX(0,(C5-D5))*K$3</f>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="O5" s="34">
         <f ca="1">J5-K5-L5-M5-N5</f>
-        <v>4300</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -2197,23 +2197,23 @@
       </c>
       <c r="B6" s="35">
         <f ca="1">E5</f>
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="C6" s="37">
         <f t="shared" ref="C6:C56" ca="1" si="2">RANDBETWEEN(100,250)</f>
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="D6" s="35">
         <f t="shared" ref="D6:D56" ca="1" si="3">MIN(B6,C6)</f>
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="E6" s="30">
         <f t="shared" ref="E6:E56" ca="1" si="4">B6-D6</f>
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="F6" s="30">
         <f t="shared" ref="F6:F56" ca="1" si="5">I5</f>
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="G6" s="18">
         <f>F5</f>
@@ -2224,11 +2224,11 @@
       </c>
       <c r="I6" s="30">
         <f t="shared" ref="I6:I56" ca="1" si="6">MAX(I$3-(E6+F6+G6+H6),0)</f>
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="J6" s="32">
         <f t="shared" ref="J6:J56" ca="1" si="7">D6*J$3</f>
-        <v>7110</v>
+        <v>4980</v>
       </c>
       <c r="K6" s="33">
         <f t="shared" ref="K6:K56" ca="1" si="8">MAX(0,(C6-D6))*K$3</f>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="O6" s="34">
         <f t="shared" ref="O6:O56" ca="1" si="10">J6-K6-L6-M6-N6</f>
-        <v>6760</v>
+        <v>4630</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="8"/>
@@ -2263,42 +2263,42 @@
       </c>
       <c r="B7" s="35">
         <f ca="1">E6</f>
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="C7" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="D7" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E7" s="30">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F7" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="G7" s="30">
         <f t="shared" ref="G7:G56" ca="1" si="11">F6</f>
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="H7" s="18">
         <v>0</v>
       </c>
       <c r="I7" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="J7" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3240</v>
+        <v>4200</v>
       </c>
       <c r="K7" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>3136</v>
+        <v>0</v>
       </c>
       <c r="L7" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="O7" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>-246</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
@@ -2323,15 +2323,15 @@
       </c>
       <c r="B8" s="35">
         <f ca="1">E7</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C8" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D8" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E8" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -2339,43 +2339,43 @@
       </c>
       <c r="F8" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="G8" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="H8" s="30">
         <f ca="1">G7</f>
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="I8" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J8" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="K8" s="33">
         <f ca="1">MAX(0,(C8-D8))*K$3</f>
-        <v>7456</v>
+        <v>6784</v>
       </c>
       <c r="L8" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M8" s="33">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="N8" s="33">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O8" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>-7456</v>
+        <v>-6744</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -2384,43 +2384,43 @@
       </c>
       <c r="B9" s="24">
         <f ca="1">E8+I5</f>
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="C9" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>142</v>
+        <v>221</v>
       </c>
       <c r="D9" s="24">
         <f ca="1">MIN(B9,C9)</f>
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="E9" s="26">
         <f ca="1">B9-D9</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F9" s="26">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G9" s="26">
         <f t="shared" ca="1" si="11"/>
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="H9" s="26">
         <f t="shared" ref="H9:H56" ca="1" si="12">G8</f>
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="I9" s="26">
         <f t="shared" ca="1" si="6"/>
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="J9" s="27">
         <f ca="1">D9*J$3</f>
-        <v>4260</v>
+        <v>5430</v>
       </c>
       <c r="K9" s="28">
         <f ca="1">MAX(0,(C9-D9))*K$3</f>
-        <v>0</v>
+        <v>1280</v>
       </c>
       <c r="L9" s="28">
         <f t="shared" ca="1" si="0"/>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="O9" s="29">
         <f t="shared" ca="1" si="10"/>
-        <v>3910</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
@@ -2445,39 +2445,39 @@
       </c>
       <c r="B10" s="35">
         <f t="shared" ref="B10:B56" ca="1" si="13">E9+I6</f>
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="C10" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="D10" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="E10" s="30">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F10" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="G10" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H10" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="I10" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="J10" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>5340</v>
+        <v>3360</v>
       </c>
       <c r="K10" s="33">
         <f t="shared" ca="1" si="8"/>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="O10" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>4990</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
@@ -2506,43 +2506,43 @@
       </c>
       <c r="B11" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="C11" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="D11" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="E11" s="30">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F11" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="G11" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="H11" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I11" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="J11" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="K11" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="L11" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="O11" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>4954</v>
+        <v>2650</v>
       </c>
       <c r="Q11" s="40"/>
       <c r="R11" s="40"/>
@@ -2575,15 +2575,15 @@
       </c>
       <c r="B12" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="C12" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="D12" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="E12" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -2591,43 +2591,43 @@
       </c>
       <c r="F12" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="G12" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="H12" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="I12" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="J12" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>3210</v>
       </c>
       <c r="K12" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>5216</v>
+        <v>576</v>
       </c>
       <c r="L12" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M12" s="33">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="N12" s="33">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O12" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>-5216</v>
+        <v>2284</v>
       </c>
       <c r="Q12" s="40"/>
       <c r="R12" s="40"/>
@@ -2644,15 +2644,15 @@
       </c>
       <c r="B13" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="C13" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="D13" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="E13" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -2660,27 +2660,27 @@
       </c>
       <c r="F13" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="G13" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="H13" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="I13" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="J13" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>4260</v>
+        <v>5430</v>
       </c>
       <c r="K13" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>1120</v>
+        <v>672</v>
       </c>
       <c r="L13" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="O13" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>2790</v>
+        <v>4408</v>
       </c>
       <c r="Q13" s="40"/>
       <c r="R13" s="40"/>
@@ -2713,15 +2713,15 @@
       </c>
       <c r="B14" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="C14" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D14" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="E14" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -2729,27 +2729,27 @@
       </c>
       <c r="F14" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="G14" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="H14" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="I14" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="J14" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>5340</v>
+        <v>3360</v>
       </c>
       <c r="K14" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>2080</v>
+        <v>4384</v>
       </c>
       <c r="L14" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="O14" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>2910</v>
+        <v>-1374</v>
       </c>
       <c r="Q14" s="41"/>
       <c r="R14" s="40"/>
@@ -2782,43 +2782,43 @@
       </c>
       <c r="B15" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="C15" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="D15" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="E15" s="30">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F15" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="G15" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="H15" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="I15" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="J15" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>4920</v>
+        <v>3000</v>
       </c>
       <c r="K15" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>736</v>
       </c>
       <c r="L15" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="O15" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>4570</v>
+        <v>1914</v>
       </c>
       <c r="Q15" s="42"/>
       <c r="R15" s="40"/>
@@ -2851,15 +2851,15 @@
       </c>
       <c r="B16" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="C16" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="D16" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="E16" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -2867,27 +2867,27 @@
       </c>
       <c r="F16" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="G16" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="H16" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="I16" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="J16" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>480</v>
+        <v>3210</v>
       </c>
       <c r="K16" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>5120</v>
+        <v>3328</v>
       </c>
       <c r="L16" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="O16" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>-4990</v>
+        <v>-468</v>
       </c>
       <c r="Q16" s="43"/>
       <c r="R16" s="40"/>
@@ -2920,39 +2920,39 @@
       </c>
       <c r="B17" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="C17" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="D17" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="E17" s="30">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F17" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="G17" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="H17" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="I17" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="J17" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3690</v>
+        <v>4920</v>
       </c>
       <c r="K17" s="33">
         <f t="shared" ca="1" si="8"/>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="O17" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>3340</v>
+        <v>4570</v>
       </c>
       <c r="Q17" s="43"/>
       <c r="R17" s="40"/>
@@ -2989,39 +2989,39 @@
       </c>
       <c r="B18" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="C18" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D18" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E18" s="30">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="F18" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="G18" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="H18" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="I18" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J18" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3780</v>
+        <v>3720</v>
       </c>
       <c r="K18" s="33">
         <f t="shared" ca="1" si="8"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="O18" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>3430</v>
+        <v>3370</v>
       </c>
       <c r="Q18" s="44"/>
       <c r="R18" s="40"/>
@@ -3058,43 +3058,43 @@
       </c>
       <c r="B19" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>235</v>
+        <v>105</v>
       </c>
       <c r="C19" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D19" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="E19" s="30">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="F19" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G19" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="H19" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I19" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="J19" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>4260</v>
+        <v>3150</v>
       </c>
       <c r="K19" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="L19" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="O19" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>3910</v>
+        <v>2160</v>
       </c>
       <c r="Q19" s="40"/>
       <c r="R19" s="40"/>
@@ -3127,15 +3127,15 @@
       </c>
       <c r="B20" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C20" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>112</v>
+        <v>225</v>
       </c>
       <c r="D20" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E20" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -3143,27 +3143,27 @@
       </c>
       <c r="F20" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="G20" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H20" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="I20" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J20" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3270</v>
+        <v>3210</v>
       </c>
       <c r="K20" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>3776</v>
       </c>
       <c r="L20" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="O20" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>2824</v>
+        <v>-916</v>
       </c>
       <c r="Q20" s="40"/>
       <c r="R20" s="40"/>
@@ -3196,15 +3196,15 @@
       </c>
       <c r="B21" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="C21" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D21" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="E21" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -3212,27 +3212,27 @@
       </c>
       <c r="F21" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G21" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="H21" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I21" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="J21" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3690</v>
+        <v>4920</v>
       </c>
       <c r="K21" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>1600</v>
+        <v>544</v>
       </c>
       <c r="L21" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="O21" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>1740</v>
+        <v>4026</v>
       </c>
       <c r="Q21" s="41"/>
       <c r="R21" s="40"/>
@@ -3265,15 +3265,15 @@
       </c>
       <c r="B22" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C22" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>242</v>
+        <v>161</v>
       </c>
       <c r="D22" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E22" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -3281,27 +3281,27 @@
       </c>
       <c r="F22" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="G22" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H22" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="I22" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J22" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3780</v>
+        <v>3720</v>
       </c>
       <c r="K22" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>3712</v>
+        <v>1184</v>
       </c>
       <c r="L22" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="O22" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>-282</v>
+        <v>2186</v>
       </c>
       <c r="Q22" s="42"/>
       <c r="R22" s="40"/>
@@ -3334,15 +3334,15 @@
       </c>
       <c r="B23" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="C23" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="D23" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="E23" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -3350,27 +3350,27 @@
       </c>
       <c r="F23" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G23" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="H23" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I23" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="J23" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>4260</v>
+        <v>3150</v>
       </c>
       <c r="K23" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>2400</v>
       </c>
       <c r="L23" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="O23" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>3846</v>
+        <v>400</v>
       </c>
       <c r="Q23" s="43"/>
       <c r="R23" s="40"/>
@@ -3403,15 +3403,15 @@
       </c>
       <c r="B24" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C24" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D24" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E24" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -3419,27 +3419,27 @@
       </c>
       <c r="F24" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="G24" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H24" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="I24" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J24" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3270</v>
+        <v>3210</v>
       </c>
       <c r="K24" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>4352</v>
+        <v>3904</v>
       </c>
       <c r="L24" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="O24" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>-1432</v>
+        <v>-1044</v>
       </c>
       <c r="Q24" s="43"/>
       <c r="R24" s="40"/>
@@ -3472,39 +3472,39 @@
       </c>
       <c r="B25" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="C25" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D25" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E25" s="30">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F25" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G25" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="H25" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I25" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="J25" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3240</v>
+        <v>3780</v>
       </c>
       <c r="K25" s="33">
         <f t="shared" ca="1" si="8"/>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="O25" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>2890</v>
+        <v>3430</v>
       </c>
       <c r="Q25" s="44"/>
       <c r="R25" s="40"/>
@@ -3541,39 +3541,39 @@
       </c>
       <c r="B26" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="C26" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="D26" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="E26" s="30">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F26" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G26" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H26" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="I26" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="J26" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3540</v>
+        <v>4860</v>
       </c>
       <c r="K26" s="33">
         <f t="shared" ca="1" si="8"/>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="O26" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>3190</v>
+        <v>4510</v>
       </c>
       <c r="Q26" s="40"/>
       <c r="R26" s="40"/>
@@ -3610,15 +3610,15 @@
       </c>
       <c r="B27" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="C27" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D27" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="E27" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -3626,27 +3626,27 @@
       </c>
       <c r="F27" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="G27" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="H27" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I27" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="J27" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>4950</v>
+        <v>3150</v>
       </c>
       <c r="K27" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>864</v>
+        <v>2560</v>
       </c>
       <c r="L27" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="O27" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>3736</v>
+        <v>240</v>
       </c>
       <c r="Q27" s="40"/>
       <c r="R27" s="40"/>
@@ -3679,15 +3679,15 @@
       </c>
       <c r="B28" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C28" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="D28" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E28" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -3695,27 +3695,27 @@
       </c>
       <c r="F28" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="G28" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="H28" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="I28" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J28" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3270</v>
+        <v>3210</v>
       </c>
       <c r="K28" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>896</v>
+        <v>2304</v>
       </c>
       <c r="L28" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="O28" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>2024</v>
+        <v>556</v>
       </c>
       <c r="Q28" s="40"/>
       <c r="R28" s="40"/>
@@ -3748,15 +3748,15 @@
       </c>
       <c r="B29" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C29" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="D29" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E29" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -3764,27 +3764,27 @@
       </c>
       <c r="F29" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G29" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="H29" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="I29" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="J29" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3240</v>
+        <v>3780</v>
       </c>
       <c r="K29" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>2080</v>
+        <v>3616</v>
       </c>
       <c r="L29" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -3800,7 +3800,7 @@
       </c>
       <c r="O29" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>810</v>
+        <v>-186</v>
       </c>
       <c r="Q29" s="40"/>
       <c r="R29" s="40"/>
@@ -3817,43 +3817,43 @@
       </c>
       <c r="B30" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="C30" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="D30" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="E30" s="30">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F30" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G30" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H30" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="I30" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="J30" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3540</v>
+        <v>4350</v>
       </c>
       <c r="K30" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>2144</v>
+        <v>0</v>
       </c>
       <c r="L30" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="O30" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>1046</v>
+        <v>4000</v>
       </c>
       <c r="Q30" s="40"/>
       <c r="R30" s="40"/>
@@ -3886,15 +3886,15 @@
       </c>
       <c r="B31" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="C31" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D31" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="E31" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -3902,27 +3902,27 @@
       </c>
       <c r="F31" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="G31" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="H31" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I31" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="J31" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>4950</v>
+        <v>3660</v>
       </c>
       <c r="K31" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>928</v>
+        <v>2112</v>
       </c>
       <c r="L31" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="O31" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>3672</v>
+        <v>1198</v>
       </c>
       <c r="Q31" s="40"/>
       <c r="R31" s="40"/>
@@ -3955,43 +3955,43 @@
       </c>
       <c r="B32" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C32" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="D32" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E32" s="30">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F32" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="G32" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="H32" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="I32" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J32" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3270</v>
+        <v>3060</v>
       </c>
       <c r="K32" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>2912</v>
+        <v>0</v>
       </c>
       <c r="L32" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="O32" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>2710</v>
       </c>
       <c r="Q32" s="40"/>
       <c r="R32" s="40"/>
@@ -4024,15 +4024,15 @@
       </c>
       <c r="B33" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C33" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>143</v>
+        <v>236</v>
       </c>
       <c r="D33" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="E33" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -4040,27 +4040,27 @@
       </c>
       <c r="F33" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G33" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="H33" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="I33" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="J33" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3240</v>
+        <v>3930</v>
       </c>
       <c r="K33" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>1120</v>
+        <v>3360</v>
       </c>
       <c r="L33" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="O33" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>1770</v>
+        <v>220</v>
       </c>
       <c r="Q33" s="40"/>
       <c r="R33" s="40"/>
@@ -4093,15 +4093,15 @@
       </c>
       <c r="B34" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="C34" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>122</v>
+        <v>248</v>
       </c>
       <c r="D34" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="E34" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -4109,27 +4109,27 @@
       </c>
       <c r="F34" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="G34" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H34" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="I34" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="J34" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3540</v>
+        <v>4350</v>
       </c>
       <c r="K34" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>128</v>
+        <v>3296</v>
       </c>
       <c r="L34" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="O34" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>3062</v>
+        <v>704</v>
       </c>
       <c r="Q34" s="40"/>
       <c r="R34" s="40"/>
@@ -4162,43 +4162,43 @@
       </c>
       <c r="B35" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="C35" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D35" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E35" s="30">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F35" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="G35" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="H35" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I35" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="J35" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>4470</v>
+        <v>3660</v>
       </c>
       <c r="K35" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="L35" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="O35" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>4120</v>
+        <v>2958</v>
       </c>
       <c r="Q35" s="40"/>
       <c r="R35" s="40"/>
@@ -4231,15 +4231,15 @@
       </c>
       <c r="B36" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C36" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>217</v>
+        <v>122</v>
       </c>
       <c r="D36" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E36" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -4247,27 +4247,27 @@
       </c>
       <c r="F36" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="G36" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="H36" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="I36" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="J36" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3750</v>
+        <v>3060</v>
       </c>
       <c r="K36" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>2944</v>
+        <v>640</v>
       </c>
       <c r="L36" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O36" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>456</v>
+        <v>2070</v>
       </c>
       <c r="Q36" s="40"/>
       <c r="R36" s="40"/>
@@ -4300,15 +4300,15 @@
       </c>
       <c r="B37" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C37" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D37" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="E37" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -4316,27 +4316,27 @@
       </c>
       <c r="F37" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="G37" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="H37" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="I37" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="J37" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3240</v>
+        <v>3930</v>
       </c>
       <c r="K37" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>2880</v>
+        <v>3200</v>
       </c>
       <c r="L37" s="33">
         <f t="shared" ref="L37:L56" ca="1" si="14">IF(I37&gt;0,L$3,0)</f>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="O37" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>380</v>
       </c>
       <c r="Q37" s="40"/>
       <c r="R37" s="40"/>
@@ -4369,15 +4369,15 @@
       </c>
       <c r="B38" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="C38" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D38" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="E38" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -4385,27 +4385,27 @@
       </c>
       <c r="F38" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="G38" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="H38" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="I38" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="J38" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3540</v>
+        <v>4350</v>
       </c>
       <c r="K38" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>1824</v>
+        <v>1312</v>
       </c>
       <c r="L38" s="33">
         <f t="shared" ca="1" si="14"/>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="O38" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>1366</v>
+        <v>2688</v>
       </c>
       <c r="Q38" s="40"/>
       <c r="R38" s="40"/>
@@ -4438,43 +4438,43 @@
       </c>
       <c r="B39" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="C39" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D39" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="E39" s="30">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F39" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="G39" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="H39" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="I39" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="J39" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>4200</v>
+        <v>3660</v>
       </c>
       <c r="K39" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="L39" s="33">
         <f t="shared" ca="1" si="14"/>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="O39" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>3850</v>
+        <v>3118</v>
       </c>
       <c r="Q39" s="40"/>
       <c r="R39" s="40"/>
@@ -4507,43 +4507,43 @@
       </c>
       <c r="B40" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C40" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D40" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="E40" s="30">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G40" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="H40" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="I40" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="J40" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3930</v>
+        <v>3060</v>
       </c>
       <c r="K40" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1376</v>
       </c>
       <c r="L40" s="33">
         <f t="shared" ca="1" si="14"/>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="O40" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>3580</v>
+        <v>1334</v>
       </c>
       <c r="Q40" s="40"/>
       <c r="R40" s="40"/>
@@ -4576,15 +4576,15 @@
       </c>
       <c r="B41" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C41" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D41" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E41" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -4592,27 +4592,27 @@
       </c>
       <c r="F41" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="G41" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="H41" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="I41" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="J41" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3330</v>
+        <v>3930</v>
       </c>
       <c r="K41" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>224</v>
+        <v>896</v>
       </c>
       <c r="L41" s="33">
         <f t="shared" ca="1" si="14"/>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="O41" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>2756</v>
+        <v>2684</v>
       </c>
       <c r="Q41" s="40"/>
       <c r="R41" s="40"/>
@@ -4645,15 +4645,15 @@
       </c>
       <c r="B42" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="C42" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>119</v>
+        <v>234</v>
       </c>
       <c r="D42" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="E42" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -4661,27 +4661,27 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="H42" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I42" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="J42" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3540</v>
+        <v>4350</v>
       </c>
       <c r="K42" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>2848</v>
       </c>
       <c r="L42" s="33">
         <f t="shared" ca="1" si="14"/>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="O42" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>3158</v>
+        <v>1152</v>
       </c>
       <c r="Q42" s="40"/>
       <c r="R42" s="40"/>
@@ -4714,15 +4714,15 @@
       </c>
       <c r="B43" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C43" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="D43" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="E43" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -4730,27 +4730,27 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="I43" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="J43" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>4200</v>
+        <v>3660</v>
       </c>
       <c r="K43" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>2848</v>
+        <v>1888</v>
       </c>
       <c r="L43" s="33">
         <f t="shared" ca="1" si="14"/>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="O43" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>1002</v>
+        <v>1422</v>
       </c>
       <c r="Q43" s="40"/>
       <c r="R43" s="40"/>
@@ -4783,15 +4783,15 @@
       </c>
       <c r="B44" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="C44" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="D44" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="E44" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -4799,27 +4799,27 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="H44" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="I44" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="J44" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3930</v>
+        <v>3060</v>
       </c>
       <c r="K44" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>2016</v>
+        <v>3584</v>
       </c>
       <c r="L44" s="33">
         <f t="shared" ca="1" si="14"/>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="O44" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>1564</v>
+        <v>-874</v>
       </c>
       <c r="Q44" s="40"/>
       <c r="R44" s="40"/>
@@ -4852,15 +4852,15 @@
       </c>
       <c r="B45" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C45" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="D45" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E45" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -4868,27 +4868,27 @@
       </c>
       <c r="F45" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="G45" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="H45" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="I45" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="J45" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3330</v>
+        <v>3930</v>
       </c>
       <c r="K45" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>2848</v>
+        <v>3008</v>
       </c>
       <c r="L45" s="33">
         <f t="shared" ca="1" si="14"/>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="O45" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>132</v>
+        <v>572</v>
       </c>
       <c r="Q45" s="40"/>
       <c r="R45" s="40"/>
@@ -4921,15 +4921,15 @@
       </c>
       <c r="B46" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="C46" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>233</v>
+        <v>145</v>
       </c>
       <c r="D46" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="E46" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -4937,27 +4937,27 @@
       </c>
       <c r="F46" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="G46" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="H46" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I46" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="J46" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3540</v>
+        <v>4350</v>
       </c>
       <c r="K46" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>3680</v>
+        <v>0</v>
       </c>
       <c r="L46" s="33">
         <f t="shared" ca="1" si="14"/>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="O46" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>-490</v>
+        <v>4000</v>
       </c>
       <c r="Q46" s="40"/>
       <c r="R46" s="40"/>
@@ -4990,43 +4990,43 @@
       </c>
       <c r="B47" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C47" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="D47" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E47" s="30">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F47" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="G47" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="H47" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="I47" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="J47" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3120</v>
+        <v>3660</v>
       </c>
       <c r="K47" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>3712</v>
       </c>
       <c r="L47" s="33">
         <f t="shared" ca="1" si="14"/>
@@ -5042,7 +5042,7 @@
       </c>
       <c r="O47" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>2770</v>
+        <v>-402</v>
       </c>
       <c r="Q47" s="40"/>
       <c r="R47" s="40"/>
@@ -5059,15 +5059,15 @@
       </c>
       <c r="B48" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="C48" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="D48" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="E48" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -5075,27 +5075,27 @@
       </c>
       <c r="F48" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G48" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="H48" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="I48" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="J48" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>5010</v>
+        <v>3060</v>
       </c>
       <c r="K48" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>544</v>
+        <v>1312</v>
       </c>
       <c r="L48" s="33">
         <f t="shared" ca="1" si="14"/>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="O48" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>4116</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -5120,15 +5120,15 @@
       </c>
       <c r="B49" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C49" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="D49" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E49" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -5136,27 +5136,27 @@
       </c>
       <c r="F49" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="G49" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="H49" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="I49" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="J49" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3330</v>
+        <v>3930</v>
       </c>
       <c r="K49" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>1408</v>
+        <v>2432</v>
       </c>
       <c r="L49" s="33">
         <f t="shared" ca="1" si="14"/>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="O49" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>1572</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -5181,15 +5181,15 @@
       </c>
       <c r="B50" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="C50" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="D50" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="E50" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -5197,27 +5197,27 @@
       </c>
       <c r="F50" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="G50" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="H50" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="I50" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="J50" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3540</v>
+        <v>4350</v>
       </c>
       <c r="K50" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="L50" s="33">
         <f t="shared" ca="1" si="14"/>
@@ -5233,7 +5233,7 @@
       </c>
       <c r="O50" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>3190</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -5242,15 +5242,15 @@
       </c>
       <c r="B51" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C51" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D51" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E51" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -5258,27 +5258,27 @@
       </c>
       <c r="F51" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="G51" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="H51" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="I51" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="J51" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3120</v>
+        <v>3660</v>
       </c>
       <c r="K51" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>3840</v>
+        <v>3680</v>
       </c>
       <c r="L51" s="33">
         <f t="shared" ca="1" si="14"/>
@@ -5294,7 +5294,7 @@
       </c>
       <c r="O51" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>-1070</v>
+        <v>-370</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -5303,43 +5303,43 @@
       </c>
       <c r="B52" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="C52" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="D52" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="E52" s="30">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G52" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="H52" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="I52" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="J52" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>5010</v>
+        <v>3030</v>
       </c>
       <c r="K52" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>1152</v>
+        <v>0</v>
       </c>
       <c r="L52" s="33">
         <f t="shared" ca="1" si="14"/>
@@ -5355,7 +5355,7 @@
       </c>
       <c r="O52" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>3508</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -5364,15 +5364,15 @@
       </c>
       <c r="B53" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C53" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D53" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="E53" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -5380,27 +5380,27 @@
       </c>
       <c r="F53" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="G53" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="H53" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="I53" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="J53" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3330</v>
+        <v>3960</v>
       </c>
       <c r="K53" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>2848</v>
+        <v>1856</v>
       </c>
       <c r="L53" s="33">
         <f t="shared" ca="1" si="14"/>
@@ -5416,7 +5416,7 @@
       </c>
       <c r="O53" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>132</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
@@ -5425,15 +5425,15 @@
       </c>
       <c r="B54" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="C54" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="D54" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="E54" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -5441,27 +5441,27 @@
       </c>
       <c r="F54" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="G54" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="H54" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="I54" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="J54" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3540</v>
+        <v>4350</v>
       </c>
       <c r="K54" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>4224</v>
+        <v>1120</v>
       </c>
       <c r="L54" s="33">
         <f t="shared" ca="1" si="14"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="O54" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>-1034</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
@@ -5486,15 +5486,15 @@
       </c>
       <c r="B55" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C55" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="D55" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E55" s="30">
         <f t="shared" ca="1" si="4"/>
@@ -5502,27 +5502,27 @@
       </c>
       <c r="F55" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="G55" s="30">
         <f t="shared" ca="1" si="11"/>
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="H55" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="I55" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="J55" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3120</v>
+        <v>3660</v>
       </c>
       <c r="K55" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>4000</v>
+        <v>1312</v>
       </c>
       <c r="L55" s="33">
         <f t="shared" ca="1" si="14"/>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="O55" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>-1230</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -5547,43 +5547,43 @@
       </c>
       <c r="B56" s="35">
         <f t="shared" ca="1" si="13"/>
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="C56" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="D56" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E56" s="30">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F56" s="31">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G56" s="31">
         <f t="shared" ca="1" si="11"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="H56" s="30">
         <f t="shared" ca="1" si="12"/>
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="I56" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="J56" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>3330</v>
+        <v>3030</v>
       </c>
       <c r="K56" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="L56" s="33">
         <f t="shared" ca="1" si="14"/>
@@ -5599,25 +5599,25 @@
       </c>
       <c r="O56" s="34">
         <f t="shared" ca="1" si="10"/>
-        <v>2980</v>
+        <v>856</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B57" s="20">
         <f ca="1">AVERAGE(B5:B56)</f>
-        <v>141.07692307692307</v>
+        <v>138.65384615384616</v>
       </c>
       <c r="C57" s="21">
         <f ca="1">AVERAGE(C5:C56)</f>
-        <v>173.40384615384616</v>
+        <v>175.71153846153845</v>
       </c>
       <c r="D57" s="21">
         <f ca="1">AVERAGE(D5:D56)</f>
-        <v>123.86538461538461</v>
+        <v>124.88461538461539</v>
       </c>
       <c r="E57" s="21">
         <f ca="1">AVERAGE(E5:E56)</f>
-        <v>17.21153846153846</v>
+        <v>13.76923076923077</v>
       </c>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
@@ -5625,18 +5625,18 @@
       <c r="I57" s="21"/>
       <c r="J57" s="22">
         <f ca="1">AVERAGE(J5:J56)</f>
-        <v>3715.9615384615386</v>
+        <v>3746.5384615384614</v>
       </c>
       <c r="K57" s="22">
         <f ca="1">AVERAGE(K5:K56)</f>
-        <v>1585.2307692307693</v>
+        <v>1626.4615384615386</v>
       </c>
       <c r="L57" s="22"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="57">
         <f ca="1">AVERAGE(O5:O56)</f>
-        <v>1794.1923076923076</v>
+        <v>1770.0769230769231</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.35">
